--- a/Documentos/nanda/dominio07/Caracteristicas_Dominio07.xlsx
+++ b/Documentos/nanda/dominio07/Caracteristicas_Dominio07.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="332">
   <si>
     <t>###</t>
   </si>
@@ -994,13 +994,31 @@
   </si>
   <si>
     <t xml:space="preserve">Suporte recíproco nas atividades cotidianas entre os parceiros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comportamentos de interação social malsucedidos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desconforto em situações sociais </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incapacidade de comunicar uma sensação satisfatória de envolvimento social (p. ex., pertinência, cuidado, interesse, história compartilhada) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incapacidade de receber uma sensação satisfatória de envolvimento social (p. ex., pertinência, cuidado, interesse, história compartilhada) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interação disfuncional com outras pessoas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relato familiar de mudança na interação (p. ex., estilo, padrão) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1037,18 +1055,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1086,7 +1099,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1120,7 +1133,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1155,10 +1167,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1331,19 +1342,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E331"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="A331" sqref="A331:A337"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1360,7 +1371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +1439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1445,7 +1456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1462,7 +1473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1479,7 +1490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1496,7 +1507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +1575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1615,7 +1626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1632,7 +1643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1649,7 +1660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +1677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1683,7 +1694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1717,7 +1728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1734,7 +1745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1768,7 +1779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +1796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +1813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1819,7 +1830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +1847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1853,7 +1864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1870,7 +1881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1887,7 +1898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1904,7 +1915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1921,7 +1932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1938,7 +1949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1955,7 +1966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1972,7 +1983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1989,7 +2000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2006,7 +2017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2040,7 +2051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2057,7 +2068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2074,7 +2085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2091,7 +2102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2108,7 +2119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2125,7 +2136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2142,7 +2153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2159,7 +2170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2176,7 +2187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2193,7 +2204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2210,7 +2221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -2227,7 +2238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -2244,7 +2255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2261,7 +2272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2278,7 +2289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -2295,7 +2306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -2312,7 +2323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2329,7 +2340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2346,7 +2357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2363,7 +2374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2380,7 +2391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2397,7 +2408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -2414,7 +2425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -2431,7 +2442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +2459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -2465,7 +2476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -2482,7 +2493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -2499,7 +2510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -2516,7 +2527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -2533,7 +2544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -2550,7 +2561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -2567,7 +2578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -2584,7 +2595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -2601,7 +2612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -2618,7 +2629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -2635,7 +2646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -2652,7 +2663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -2669,7 +2680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2686,7 +2697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -2703,7 +2714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -2720,7 +2731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -2737,7 +2748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -2754,7 +2765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2771,7 +2782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -2788,7 +2799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -2805,7 +2816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -2822,7 +2833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -2839,7 +2850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -2856,7 +2867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -2873,7 +2884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -2890,7 +2901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -2907,7 +2918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -2924,7 +2935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -2941,7 +2952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -2958,7 +2969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -2975,7 +2986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -2992,7 +3003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -3009,7 +3020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -3026,7 +3037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -3043,7 +3054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -3060,7 +3071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -3077,7 +3088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -3094,7 +3105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -3111,7 +3122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -3128,7 +3139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -3145,7 +3156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -3162,7 +3173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -3179,7 +3190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -3196,7 +3207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -3213,7 +3224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -3230,7 +3241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -3247,7 +3258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -3264,7 +3275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -3281,7 +3292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -3298,7 +3309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -3315,7 +3326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -3332,7 +3343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -3349,7 +3360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -3366,7 +3377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -3383,7 +3394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -3400,7 +3411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -3417,7 +3428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -3434,7 +3445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -3451,7 +3462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -3468,7 +3479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -3485,7 +3496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -3502,7 +3513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -3519,7 +3530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -3536,7 +3547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -3553,7 +3564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -3570,7 +3581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -3587,7 +3598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -3604,7 +3615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -3621,7 +3632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -3638,7 +3649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -3655,7 +3666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -3672,7 +3683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -3689,7 +3700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -3706,7 +3717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -3723,7 +3734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -3740,7 +3751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -3757,7 +3768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -3774,7 +3785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -3791,7 +3802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -3808,7 +3819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -3825,7 +3836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -3842,7 +3853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -3859,7 +3870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -3876,7 +3887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -3893,7 +3904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -3910,7 +3921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -3927,7 +3938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -3944,7 +3955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -3961,7 +3972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -3978,7 +3989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -3995,7 +4006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -4012,7 +4023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -4029,7 +4040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -4046,7 +4057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -4063,7 +4074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -4080,7 +4091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -4097,7 +4108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -4114,7 +4125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -4131,7 +4142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -4148,7 +4159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -4165,7 +4176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -4182,7 +4193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -4199,7 +4210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -4216,7 +4227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -4233,7 +4244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -4250,7 +4261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -4267,7 +4278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -4284,7 +4295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -4301,7 +4312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -4318,7 +4329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -4335,7 +4346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -4352,7 +4363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -4369,7 +4380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -4386,7 +4397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -4403,7 +4414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -4420,7 +4431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -4437,7 +4448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -4454,7 +4465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -4471,7 +4482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -4488,7 +4499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -4505,7 +4516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -4522,7 +4533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -4539,7 +4550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -4556,7 +4567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -4573,7 +4584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -4590,7 +4601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -4607,7 +4618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -4624,7 +4635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -4641,7 +4652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -4658,7 +4669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -4675,7 +4686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -4692,7 +4703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -4709,7 +4720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -4726,7 +4737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -4743,7 +4754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -4760,7 +4771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -4777,7 +4788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -4794,7 +4805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -4811,7 +4822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -4828,7 +4839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -4845,7 +4856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -4862,7 +4873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -4879,7 +4890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -4896,7 +4907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -4913,7 +4924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -4930,7 +4941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -4947,7 +4958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -4964,7 +4975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -4981,7 +4992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -4998,7 +5009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -5015,7 +5026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -5032,7 +5043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -5049,7 +5060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -5066,7 +5077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -5083,7 +5094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -5100,7 +5111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -5117,7 +5128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -5134,7 +5145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -5151,7 +5162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -5168,7 +5179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -5185,7 +5196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -5202,7 +5213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -5219,7 +5230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -5236,7 +5247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -5253,7 +5264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -5270,7 +5281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -5287,7 +5298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -5304,7 +5315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -5321,7 +5332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -5338,7 +5349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>0</v>
       </c>
@@ -5355,7 +5366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -5372,7 +5383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>0</v>
       </c>
@@ -5389,7 +5400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" t="s">
         <v>0</v>
       </c>
@@ -5406,7 +5417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>0</v>
       </c>
@@ -5423,7 +5434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -5440,7 +5451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>0</v>
       </c>
@@ -5457,7 +5468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>0</v>
       </c>
@@ -5474,7 +5485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
         <v>0</v>
       </c>
@@ -5491,7 +5502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -5508,7 +5519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -5525,7 +5536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>0</v>
       </c>
@@ -5542,7 +5553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>0</v>
       </c>
@@ -5559,7 +5570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -5576,7 +5587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>0</v>
       </c>
@@ -5593,7 +5604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -5610,7 +5621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>0</v>
       </c>
@@ -5627,7 +5638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -5644,7 +5655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -5661,7 +5672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -5678,7 +5689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>0</v>
       </c>
@@ -5695,7 +5706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
         <v>0</v>
       </c>
@@ -5712,7 +5723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
         <v>0</v>
       </c>
@@ -5729,7 +5740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" t="s">
         <v>0</v>
       </c>
@@ -5746,7 +5757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" t="s">
         <v>0</v>
       </c>
@@ -5763,7 +5774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>0</v>
       </c>
@@ -5780,7 +5791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" t="s">
         <v>0</v>
       </c>
@@ -5797,7 +5808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" t="s">
         <v>0</v>
       </c>
@@ -5814,7 +5825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" t="s">
         <v>0</v>
       </c>
@@ -5831,7 +5842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -5848,7 +5859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266" t="s">
         <v>0</v>
       </c>
@@ -5865,7 +5876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" t="s">
         <v>0</v>
       </c>
@@ -5882,7 +5893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" t="s">
         <v>0</v>
       </c>
@@ -5899,7 +5910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269" t="s">
         <v>0</v>
       </c>
@@ -5916,7 +5927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" t="s">
         <v>0</v>
       </c>
@@ -5933,7 +5944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271" t="s">
         <v>0</v>
       </c>
@@ -5950,7 +5961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272" t="s">
         <v>0</v>
       </c>
@@ -5967,7 +5978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273" t="s">
         <v>0</v>
       </c>
@@ -5984,7 +5995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
         <v>0</v>
       </c>
@@ -6001,7 +6012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
         <v>0</v>
       </c>
@@ -6018,7 +6029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
         <v>0</v>
       </c>
@@ -6035,7 +6046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5">
       <c r="A277" t="s">
         <v>0</v>
       </c>
@@ -6052,7 +6063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5">
       <c r="A278" t="s">
         <v>0</v>
       </c>
@@ -6069,7 +6080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5">
       <c r="A279" t="s">
         <v>0</v>
       </c>
@@ -6086,7 +6097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5">
       <c r="A280" t="s">
         <v>0</v>
       </c>
@@ -6103,7 +6114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5">
       <c r="A281" t="s">
         <v>0</v>
       </c>
@@ -6120,7 +6131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5">
       <c r="A282" t="s">
         <v>0</v>
       </c>
@@ -6137,7 +6148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5">
       <c r="A283" t="s">
         <v>0</v>
       </c>
@@ -6154,7 +6165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5">
       <c r="A284" t="s">
         <v>0</v>
       </c>
@@ -6171,7 +6182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5">
       <c r="A285" t="s">
         <v>0</v>
       </c>
@@ -6188,7 +6199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5">
       <c r="A286" t="s">
         <v>0</v>
       </c>
@@ -6205,7 +6216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5">
       <c r="A287" t="s">
         <v>0</v>
       </c>
@@ -6222,7 +6233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5">
       <c r="A288" t="s">
         <v>0</v>
       </c>
@@ -6239,7 +6250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -6256,7 +6267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5">
       <c r="A290" t="s">
         <v>0</v>
       </c>
@@ -6273,7 +6284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5">
       <c r="A291" t="s">
         <v>0</v>
       </c>
@@ -6290,7 +6301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5">
       <c r="A292" t="s">
         <v>0</v>
       </c>
@@ -6307,7 +6318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5">
       <c r="A293" t="s">
         <v>0</v>
       </c>
@@ -6324,7 +6335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5">
       <c r="A294" t="s">
         <v>0</v>
       </c>
@@ -6341,7 +6352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5">
       <c r="A295" t="s">
         <v>0</v>
       </c>
@@ -6358,7 +6369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5">
       <c r="A296" t="s">
         <v>0</v>
       </c>
@@ -6375,7 +6386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5">
       <c r="A297" t="s">
         <v>0</v>
       </c>
@@ -6392,7 +6403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
         <v>0</v>
       </c>
@@ -6409,7 +6420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5">
       <c r="A299" t="s">
         <v>0</v>
       </c>
@@ -6426,7 +6437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
         <v>0</v>
       </c>
@@ -6443,7 +6454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5">
       <c r="A301" t="s">
         <v>0</v>
       </c>
@@ -6460,7 +6471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5">
       <c r="A302" t="s">
         <v>0</v>
       </c>
@@ -6477,7 +6488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5">
       <c r="A303" t="s">
         <v>0</v>
       </c>
@@ -6494,7 +6505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5">
       <c r="A304" t="s">
         <v>0</v>
       </c>
@@ -6511,7 +6522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5">
       <c r="A305" t="s">
         <v>0</v>
       </c>
@@ -6528,7 +6539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5">
       <c r="A306" t="s">
         <v>0</v>
       </c>
@@ -6545,7 +6556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5">
       <c r="A307" t="s">
         <v>0</v>
       </c>
@@ -6562,7 +6573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5">
       <c r="A308" t="s">
         <v>0</v>
       </c>
@@ -6579,7 +6590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5">
       <c r="A309" t="s">
         <v>0</v>
       </c>
@@ -6596,7 +6607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5">
       <c r="A310" t="s">
         <v>0</v>
       </c>
@@ -6613,7 +6624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5">
       <c r="A311" t="s">
         <v>0</v>
       </c>
@@ -6630,7 +6641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5">
       <c r="A312" t="s">
         <v>0</v>
       </c>
@@ -6647,7 +6658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5">
       <c r="A313" t="s">
         <v>0</v>
       </c>
@@ -6664,7 +6675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5">
       <c r="A314" t="s">
         <v>0</v>
       </c>
@@ -6681,7 +6692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5">
       <c r="A315" t="s">
         <v>0</v>
       </c>
@@ -6698,7 +6709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5">
       <c r="A316" t="s">
         <v>0</v>
       </c>
@@ -6715,7 +6726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5">
       <c r="A317" t="s">
         <v>0</v>
       </c>
@@ -6732,7 +6743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5">
       <c r="A318" t="s">
         <v>0</v>
       </c>
@@ -6749,7 +6760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5">
       <c r="A319" t="s">
         <v>0</v>
       </c>
@@ -6766,7 +6777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5">
       <c r="A320" t="s">
         <v>0</v>
       </c>
@@ -6783,7 +6794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5">
       <c r="A321" t="s">
         <v>0</v>
       </c>
@@ -6800,7 +6811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5">
       <c r="A322" t="s">
         <v>0</v>
       </c>
@@ -6817,7 +6828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5">
       <c r="A323" t="s">
         <v>0</v>
       </c>
@@ -6834,7 +6845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5">
       <c r="A324" t="s">
         <v>0</v>
       </c>
@@ -6851,7 +6862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5">
       <c r="A325" t="s">
         <v>0</v>
       </c>
@@ -6868,7 +6879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5">
       <c r="A326" t="s">
         <v>0</v>
       </c>
@@ -6885,7 +6896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5">
       <c r="A327" t="s">
         <v>0</v>
       </c>
@@ -6902,7 +6913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5">
       <c r="A328" t="s">
         <v>0</v>
       </c>
@@ -6919,7 +6930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5">
       <c r="A329" t="s">
         <v>0</v>
       </c>
@@ -6936,7 +6947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5">
       <c r="A330" t="s">
         <v>0</v>
       </c>
@@ -6953,7 +6964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5">
       <c r="A331" t="s">
         <v>0</v>
       </c>
@@ -6970,31 +6981,136 @@
         <v>2</v>
       </c>
     </row>
+    <row r="332" spans="1:5">
+      <c r="A332" t="s">
+        <v>0</v>
+      </c>
+      <c r="B332">
+        <v>115</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1</v>
+      </c>
+      <c r="D332" t="s">
+        <v>326</v>
+      </c>
+      <c r="E332" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" t="s">
+        <v>0</v>
+      </c>
+      <c r="B333">
+        <v>115</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1</v>
+      </c>
+      <c r="D333" t="s">
+        <v>327</v>
+      </c>
+      <c r="E333" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" t="s">
+        <v>0</v>
+      </c>
+      <c r="B334">
+        <v>115</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1</v>
+      </c>
+      <c r="D334" t="s">
+        <v>328</v>
+      </c>
+      <c r="E334" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" t="s">
+        <v>0</v>
+      </c>
+      <c r="B335">
+        <v>115</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1</v>
+      </c>
+      <c r="D335" t="s">
+        <v>329</v>
+      </c>
+      <c r="E335" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" t="s">
+        <v>0</v>
+      </c>
+      <c r="B336">
+        <v>115</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1</v>
+      </c>
+      <c r="D336" t="s">
+        <v>330</v>
+      </c>
+      <c r="E336" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" t="s">
+        <v>0</v>
+      </c>
+      <c r="B337">
+        <v>115</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1</v>
+      </c>
+      <c r="D337" t="s">
+        <v>331</v>
+      </c>
+      <c r="E337" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>